--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="207">
   <si>
     <t>Property</t>
   </si>
@@ -246,10 +246,7 @@
     <t>*</t>
   </si>
   <si>
-    <t>A timing schedule that specifies an event that may occur multiple times</t>
-  </si>
-  <si>
-    <t>Specifies an event that may occur multiple times. Timing schedules are used to record when things are planned, expected or requested to occur. The most common usage is in dosage instructions for medications. They are also used when planning care of various kinds, and may be used for reporting the schedule to which past regular activities were carried out.</t>
+    <t>投与日時</t>
   </si>
   <si>
     <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
@@ -981,7 +978,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="67.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1154,10 +1151,10 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -1219,18 +1216,18 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1241,25 +1238,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1310,34 +1307,34 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1356,16 +1353,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1403,19 +1400,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1427,22 +1424,22 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1455,25 +1452,25 @@
         <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="N5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1522,7 +1519,7 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
@@ -1534,18 +1531,18 @@
         <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1565,20 +1562,20 @@
         <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
         <v>74</v>
@@ -1627,7 +1624,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1639,18 +1636,18 @@
         <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1661,7 +1658,7 @@
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1670,20 +1667,20 @@
         <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O7" t="s" s="2">
         <v>74</v>
@@ -1732,30 +1729,30 @@
         <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1766,25 +1763,25 @@
         <v>75</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s" s="2">
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1835,34 +1832,34 @@
         <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="AF8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1881,16 +1878,16 @@
         <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -1928,19 +1925,19 @@
         <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="AB9" t="s" s="2">
+      <c r="AC9" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC9" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD9" t="s" s="2">
+      <c r="AE9" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -1952,18 +1949,18 @@
         <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1974,7 +1971,7 @@
         <v>75</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>74</v>
@@ -1983,16 +1980,16 @@
         <v>74</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2043,30 +2040,30 @@
         <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2077,7 +2074,7 @@
         <v>75</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>74</v>
@@ -2086,22 +2083,22 @@
         <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>74</v>
@@ -2150,30 +2147,30 @@
         <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2184,7 +2181,7 @@
         <v>75</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2193,19 +2190,19 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -2255,30 +2252,30 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2289,7 +2286,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -2298,22 +2295,22 @@
         <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -2362,30 +2359,30 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2396,7 +2393,7 @@
         <v>75</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2405,22 +2402,22 @@
         <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>148</v>
-      </c>
       <c r="M14" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
@@ -2469,30 +2466,30 @@
         <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2503,7 +2500,7 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>74</v>
@@ -2512,19 +2509,19 @@
         <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2550,54 +2547,54 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2608,7 +2605,7 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>74</v>
@@ -2617,26 +2614,26 @@
         <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>74</v>
@@ -2681,30 +2678,30 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2715,7 +2712,7 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>74</v>
@@ -2724,19 +2721,19 @@
         <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2786,30 +2783,30 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2820,7 +2817,7 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>74</v>
@@ -2829,19 +2826,19 @@
         <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2891,30 +2888,30 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2925,7 +2922,7 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>74</v>
@@ -2934,19 +2931,19 @@
         <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2996,30 +2993,30 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3030,7 +3027,7 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>74</v>
@@ -3039,19 +3036,19 @@
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K20" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3077,54 +3074,54 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3144,19 +3141,19 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3182,11 +3179,11 @@
         <v>74</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>74</v>
@@ -3204,7 +3201,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3216,18 +3213,18 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3247,19 +3244,19 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3309,7 +3306,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -3321,18 +3318,18 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3352,22 +3349,22 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3392,14 +3389,14 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3416,7 +3413,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3428,18 +3425,18 @@
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3450,7 +3447,7 @@
         <v>75</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
@@ -3459,19 +3456,19 @@
         <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>197</v>
-      </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3521,30 +3518,30 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3555,7 +3552,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3564,19 +3561,19 @@
         <v>74</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3602,49 +3599,49 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>このプロファイルはTiming DataTypeに対して、薬剤に関するタイミング定義を行なったものである</t>
+    <t>このデータタイプはTiming DataTypeに対して、薬剤に関するタイミング定義を行なったものである</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -253,112 +256,112 @@
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>QSET&lt;TS&gt; (GTS)</t>
+  </si>
+  <si>
+    <t>Timing.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Timing.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Timing.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Timing.event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>服用もしくは注射を行なうタイミングを示す時刻</t>
+  </si>
+  <si>
+    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
+  </si>
+  <si>
+    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>QSET&lt;TS&gt; (GTS)</t>
-  </si>
-  <si>
-    <t>Timing.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Timing.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Timing.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Timing.event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dateTime
-</t>
-  </si>
-  <si>
-    <t>服用もしくは注射を行なうタイミングを示す時刻</t>
-  </si>
-  <si>
-    <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
-  </si>
-  <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
   </si>
   <si>
     <t>QLIST&lt;TS&gt;</t>
@@ -901,55 +904,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1009,214 +1012,214 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>80</v>
@@ -1231,23 +1234,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>84</v>
@@ -1261,68 +1264,68 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>88</v>
@@ -1338,19 +1341,19 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>91</v>
@@ -1366,38 +1369,38 @@
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>95</v>
@@ -1406,7 +1409,7 @@
         <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>97</v>
@@ -1415,19 +1418,19 @@
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>88</v>
@@ -1443,13 +1446,13 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>102</v>
@@ -1473,68 +1476,68 @@
         <v>105</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>80</v>
@@ -1546,20 +1549,20 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>102</v>
@@ -1578,201 +1581,201 @@
         <v>111</v>
       </c>
       <c r="O6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>107</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>84</v>
@@ -1786,68 +1789,68 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>87</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>88</v>
@@ -1855,7 +1858,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1863,19 +1866,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>91</v>
@@ -1891,38 +1894,38 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>95</v>
@@ -1931,7 +1934,7 @@
         <v>96</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>97</v>
@@ -1940,19 +1943,19 @@
         <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>88</v>
@@ -1960,1263 +1963,1263 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>88</v>
@@ -3224,104 +3227,104 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>88</v>
@@ -3329,319 +3332,319 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>102</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -962,7 +965,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK25"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -972,42 +975,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="52.47265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="40.1875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.3046875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.1875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1122,138 +1125,144 @@
       <c r="AK1" t="s" s="1">
         <v>74</v>
       </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>76</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
+      <c r="AL2" t="s" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>85</v>
@@ -1261,102 +1270,105 @@
       <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B4" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>92</v>
@@ -1367,208 +1379,214 @@
       <c r="M4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="P5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>109</v>
@@ -1576,104 +1594,107 @@
       <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M6" s="2"/>
-      <c r="N6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
+      <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="P6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>116</v>
@@ -1681,104 +1702,107 @@
       <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="M7" s="2"/>
-      <c r="N7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
       </c>
+      <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>114</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>85</v>
@@ -1786,102 +1810,105 @@
       <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>92</v>
@@ -1892,101 +1919,104 @@
       <c r="M9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
         <v>96</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>125</v>
@@ -1994,102 +2024,105 @@
       <c r="L10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>130</v>
@@ -2104,102 +2137,105 @@
         <v>133</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>134</v>
+        <v>76</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>137</v>
@@ -2207,101 +2243,104 @@
       <c r="M12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>141</v>
@@ -2316,206 +2355,212 @@
         <v>144</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>139</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>148</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="N14" t="s" s="2">
         <v>144</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="P14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>151</v>
@@ -2526,31 +2571,31 @@
       <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
         <v>155</v>
@@ -2559,71 +2604,74 @@
         <v>156</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>160</v>
@@ -2631,211 +2679,217 @@
       <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>165</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>168</v>
@@ -2843,104 +2897,107 @@
       <c r="M18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>76</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
         <v>172</v>
@@ -2948,136 +3005,139 @@
       <c r="M19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>145</v>
+        <v>76</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>155</v>
@@ -3086,71 +3146,74 @@
         <v>156</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>76</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>178</v>
@@ -3158,99 +3221,102 @@
       <c r="M21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N21" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X21" s="2"/>
-      <c r="Y21" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>176</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>183</v>
@@ -3261,104 +3327,107 @@
       <c r="M22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>76</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>88</v>
+        <v>76</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>188</v>
@@ -3370,99 +3439,102 @@
         <v>190</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>191</v>
+        <v>155</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>192</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>75</v>
+        <v>193</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>76</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>193</v>
+        <v>76</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>196</v>
@@ -3471,103 +3543,106 @@
         <v>197</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
         <v>201</v>
@@ -3578,31 +3653,31 @@
       <c r="M25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="N25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>204</v>
+        <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>205</v>
@@ -3611,40 +3686,43 @@
         <v>206</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>75</v>
+        <v>207</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>207</v>
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>投与日時</t>
@@ -1157,16 +1161,16 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1231,18 +1235,18 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1253,7 +1257,7 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>76</v>
@@ -1265,13 +1269,13 @@
         <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1322,13 +1326,13 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>76</v>
@@ -1340,19 +1344,19 @@
         <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1371,16 +1375,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1418,19 +1422,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1442,25 +1446,25 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1473,25 +1477,25 @@
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1540,7 +1544,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1552,21 +1556,21 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1586,20 +1590,20 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>76</v>
@@ -1648,7 +1652,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1660,21 +1664,21 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1685,7 +1689,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1694,20 +1698,20 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -1756,33 +1760,33 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1793,7 +1797,7 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>76</v>
@@ -1805,13 +1809,13 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1862,13 +1866,13 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>76</v>
@@ -1880,19 +1884,19 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1911,16 +1915,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1958,19 +1962,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1982,21 +1986,21 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2007,7 +2011,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2016,16 +2020,16 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2076,33 +2080,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2113,7 +2117,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2122,22 +2126,22 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2186,33 +2190,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2223,7 +2227,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2232,19 +2236,19 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2294,33 +2298,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL12" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2331,7 +2335,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2340,22 +2344,22 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2404,33 +2408,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2441,7 +2445,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2450,22 +2454,22 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2514,33 +2518,33 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2551,7 +2555,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2560,19 +2564,19 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2598,13 +2602,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -2622,33 +2626,33 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2659,7 +2663,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -2668,26 +2672,26 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>76</v>
@@ -2732,33 +2736,33 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2769,7 +2773,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -2778,19 +2782,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2840,33 +2844,33 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2877,7 +2881,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -2886,19 +2890,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2948,33 +2952,33 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2985,7 +2989,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -2994,19 +2998,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3056,33 +3060,33 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3093,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3102,19 +3106,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3140,13 +3144,13 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>76</v>
@@ -3164,33 +3168,33 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3210,19 +3214,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3248,11 +3252,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3270,7 +3274,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3282,21 +3286,21 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3316,19 +3320,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3378,7 +3382,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3390,21 +3394,21 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3424,22 +3428,22 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3464,13 +3468,13 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
@@ -3488,7 +3492,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3500,21 +3504,21 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3525,7 +3529,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3534,19 +3538,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3596,33 +3600,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3633,7 +3637,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3642,19 +3646,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3680,13 +3684,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -3704,25 +3708,25 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="209">
   <si>
     <t>Property</t>
   </si>
@@ -250,10 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>投与日時</t>
@@ -1161,16 +1157,16 @@
         <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="N2" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1235,18 +1231,18 @@
         <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1257,25 +1253,25 @@
         <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1326,37 +1322,37 @@
         <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL3" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1375,16 +1371,16 @@
         <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M4" t="s" s="2">
+      <c r="N4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -1422,19 +1418,19 @@
         <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AD4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AD4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>77</v>
@@ -1446,25 +1442,25 @@
         <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1477,25 +1473,25 @@
         <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="J5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>76</v>
@@ -1544,7 +1540,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -1556,21 +1552,21 @@
         <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1590,20 +1586,20 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P6" t="s" s="2">
         <v>76</v>
@@ -1652,7 +1648,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -1664,21 +1660,21 @@
         <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL6" t="s" s="2">
-        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1689,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>76</v>
@@ -1698,20 +1694,20 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P7" t="s" s="2">
         <v>76</v>
@@ -1760,33 +1756,33 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1797,25 +1793,25 @@
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1866,37 +1862,37 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL8" t="s" s="2">
-        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -1915,16 +1911,16 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -1962,19 +1958,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AC9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AC9" t="s" s="2">
+      <c r="AD9" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
+      <c r="AF9" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -1986,21 +1982,21 @@
         <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2011,7 +2007,7 @@
         <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>76</v>
@@ -2020,16 +2016,16 @@
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2080,33 +2076,33 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2117,7 +2113,7 @@
         <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2126,22 +2122,22 @@
         <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="N11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2190,33 +2186,33 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2227,7 +2223,7 @@
         <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>76</v>
@@ -2236,19 +2232,19 @@
         <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2298,33 +2294,33 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2335,7 +2331,7 @@
         <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>76</v>
@@ -2344,22 +2340,22 @@
         <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2408,33 +2404,33 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2445,7 +2441,7 @@
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2454,22 +2450,22 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="N14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>76</v>
@@ -2518,33 +2514,33 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2555,7 +2551,7 @@
         <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>76</v>
@@ -2564,19 +2560,19 @@
         <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2602,57 +2598,57 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2663,7 +2659,7 @@
         <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>76</v>
@@ -2672,26 +2668,26 @@
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>162</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q16" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>76</v>
@@ -2736,33 +2732,33 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2773,7 +2769,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -2782,19 +2778,19 @@
         <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -2844,33 +2840,33 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2881,7 +2877,7 @@
         <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>76</v>
@@ -2890,19 +2886,19 @@
         <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -2952,33 +2948,33 @@
         <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2989,7 +2985,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -2998,19 +2994,19 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3060,33 +3056,33 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3097,7 +3093,7 @@
         <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>76</v>
@@ -3106,19 +3102,19 @@
         <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L20" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -3144,57 +3140,57 @@
         <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3214,19 +3210,19 @@
         <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -3252,11 +3248,11 @@
         <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>76</v>
@@ -3274,7 +3270,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3286,21 +3282,21 @@
         <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3320,19 +3316,19 @@
         <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>187</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -3382,7 +3378,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -3394,21 +3390,21 @@
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3428,22 +3424,22 @@
         <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3468,14 +3464,14 @@
         <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>76</v>
       </c>
@@ -3492,7 +3488,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3504,21 +3500,21 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3529,7 +3525,7 @@
         <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>76</v>
@@ -3538,19 +3534,19 @@
         <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="M24" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3600,33 +3596,33 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3637,7 +3633,7 @@
         <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>76</v>
@@ -3646,19 +3642,19 @@
         <v>76</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>204</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>205</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -3684,49 +3680,49 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -259,7 +259,8 @@
     <t>投与日時</t>
   </si>
   <si>
-    <t>Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
+    <t>複数回発生する可能性のあるイベントの発生について説明します。タイミングスケジュールは、イベントが発生することが予想または要求される時期を指定するために使用され、過去または進行中のイベントの概要を表すためにも使用できます。簡単にするために、タイミングコンポーネントの定義は「将来の」イベントとして表現されますが、そのようなコンポーネントは歴史的または進行中のイベントを説明するためにも使用できます。
+タイミングスケジュールは、イベントが発生したときのイベントおよび/または基準のリストであり、構造化された形式またはコードとして表現できます。イベントと繰り返し仕様の両方が提供される場合、イベントのリストは、繰り返し構造の情報の解釈として理解されるべきです。 / Describes the occurrence of an event that may occur multiple times. Timing schedules are used for specifying when events are expected or requested to occur, and may also be used to represent the summary of a past or ongoing event.  For simplicity, the definitions of Timing components are expressed as 'future' events, but such components can also be used to describe historic or ongoing events.
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
@@ -279,10 +280,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -302,13 +303,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -324,8 +325,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Timing.modifierExtension</t>
@@ -338,14 +339,15 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -364,10 +366,10 @@
     <t>服用タイミングを具体的な日時で指定する場合に使用する</t>
   </si>
   <si>
-    <t>In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -390,8 +392,8 @@
     <t>スケジュールされたタイミングの多くは規則的な繰り返しで決定されている。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tim-1:if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tim-1:期間がある場合は、期間単位が必要です / if there's a duration, there needs to be duration units {duration.empty() or durationUnit.exists()}tim-2:期間がある場合、期間単位が必要です / if there's a period, there needs to be period units {period.empty() or periodUnit.exists()}tim-4:期間は非陰性価値です / duration SHALL be a non-negative value {duration.exists() implies duration &gt;= 0}tim-5:期間は非陰性の価値です / period SHALL be a non-negative value {period.exists() implies period &gt;= 0}tim-6:期間がある場合、期間がなければなりません / If there's a periodMax, there must be a period {periodMax.empty() or period.exists()}tim-7:Hurtermaxがある場合、期間がなければなりません / If there's a durationMax, there must be a duration {durationMax.empty() or duration.exists()}tim-8:countmaxがある場合、カウントが必要です / If there's a countMax, there must be a count {countMax.empty() or count.exists()}tim-9:オフセットがある場合、c、cm、cd、cvではなく（c、cvではない）存在する必要があります。 / If there's an offset, there must be a when (and not C, CM, CD, CV) {offset.empty() or (when.exists() and ((when in ('C' | 'CM' | 'CD' | 'CV')).not()))}tim-10:時間がある場合、いつ、またはその逆もありません / If there's a timeOfDay, there cannot be a when, or vice versa {timeOfDay.empty() or when.empty()}</t>
   </si>
   <si>
     <t>Implies PIVL or EIVL</t>
@@ -435,7 +437,7 @@
     <t>回数に上限、下限の範囲がある場合は、このcountで示される回数が起きるまでは、エレメントは範囲の中にあると解釈されるべきである。</t>
   </si>
   <si>
-    <t>Repetitions may be limited by end time or total occurrences.</t>
+    <t>繰り返しは、終了時間または合計発生によって制限される場合があります。 / Repetitions may be limited by end time or total occurrences.</t>
   </si>
   <si>
     <t>PIVL.count</t>
@@ -491,7 +493,7 @@
 </t>
   </si>
   <si>
-    <t>s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
+    <t>s |min |h |d |wk |mo |A-時間単位（ucum） / s | min | h | d | wk | mo | a - unit of time (UCUM)</t>
   </si>
   <si>
     <t>UCUM単位で表される継続時間についての単位。</t>
@@ -503,7 +505,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>A unit of time (units from UCUM).</t>
+    <t>時間単位（UCUMからの単位）。 / A unit of time (units from UCUM).</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time|4.0.1</t>
@@ -524,7 +526,7 @@
     <t>32ビットの数値。もし、値がそれを上回るようであればdecimalを使用する。</t>
   </si>
   <si>
-    <t>If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
+    <t>頻度が記載されていない場合、イベントは期間ごとに1回発生するという仮定ですが、システムは常にこれについて具体的でなければなりません / If no frequency is stated, the assumption is that the event occurs once per period, but systems SHOULD always be specific about this</t>
   </si>
   <si>
     <t>Timing.repeat.frequencyMax</t>
@@ -569,7 +571,7 @@
     <t>Timing.repeat.dayOfWeek</t>
   </si>
   <si>
-    <t>mon | tue | wed | thu | fri | sat | sun</t>
+    <t>月|火|水|木|金|土|太陽 / mon | tue | wed | thu | fri | sat | sun</t>
   </si>
   <si>
     <t>期間として1週間以上が指定されていれば、指定された曜日のみで投与が行われる。</t>
@@ -612,7 +614,7 @@
     <t>タイミングはしばしば起床や食事、睡眠などのできごとによってしばしば決定されている。</t>
   </si>
   <si>
-    <t>Real world event relating to the schedule.</t>
+    <t>スケジュールに関連する現実世界のイベント。 / Real world event relating to the schedule.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/event-timing|4.0.1</t>
@@ -644,7 +646,7 @@
 </t>
   </si>
   <si>
-    <t>BID | TID | QID | AM | PM | QD | QOD | +</t>
+    <t>入札|TID |QID |AM |PM |QD |qod |+ / BID | TID | QID | AM | PM | QD | QOD | +</t>
   </si>
   <si>
     <t>スケジュール上のタイミングを表すコード（あるいはcode.text内のテキスト）。BID(1日2回)のようなコードはどこにでもあるが、多くの医療機関は付加的なコードを定義している。もし、コードが示されていれば、構造化されたタイミングで完全に示されたデータであると解釈され、コードまたはTimingを解釈するためのデータであると解釈される。しかし、例外的に.repeat.bounds（コードは含まれない)はコードを上書きして適用される。</t>
@@ -656,7 +658,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>Code for a known / defined timing pattern.</t>
+    <t>既知 /定義されたタイミングパターンのコード。 / Code for a known / defined timing pattern.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/timing-abbreviation</t>
@@ -1002,7 +1004,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="40.1875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -786,10 +672,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -971,7 +857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -982,13 +868,11 @@
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -999,2736 +883,2621 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="20.2578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>69</v>
+      </c>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>58</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>96</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AG9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ10" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="L12" t="s" s="2">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K13" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="L13" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q15" s="2"/>
-      <c r="R15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="Q16" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="R16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K18" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>90</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>90</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="S24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -672,10 +786,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -857,7 +971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -868,11 +982,13 @@
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -883,2621 +999,2736 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.2578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>58</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>47</v>
-      </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>49</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>50</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>52</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>58</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>52</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>52</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>157</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -150,6 +150,10 @@
 A Timing schedule can be a list of events and/or criteria for when the event happens, which can be expressed in a structured form and/or as a code. When both event and a repeating specification are provided, the list of events should be understood as an interpretation of the information in the repeat structure.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -253,10 +257,6 @@
   </si>
   <si>
     <t>たとえば、投薬投与の記録では、一般的な仕様を取得し、それを正確な仕様に変える必要があります。 / In a Medication Administration Record, for instance, you need to take a general specification, and turn it into a precise specification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
   </si>
   <si>
     <t>QLIST&lt;TS&gt;</t>
@@ -1003,21 +1003,21 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1028,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1040,13 +1040,13 @@
         <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1097,13 +1097,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1115,19 +1115,19 @@
         <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -1146,16 +1146,16 @@
         <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -1193,19 +1193,19 @@
         <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
@@ -1217,25 +1217,25 @@
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
@@ -1248,25 +1248,25 @@
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O4" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s" s="2">
         <v>38</v>
@@ -1315,7 +1315,7 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
@@ -1327,21 +1327,21 @@
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1361,20 +1361,20 @@
         <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s" s="2">
         <v>38</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
@@ -1435,7 +1435,7 @@
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -1460,7 +1460,7 @@
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -1469,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>79</v>
@@ -1537,7 +1537,7 @@
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
@@ -1568,7 +1568,7 @@
         <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>38</v>
@@ -1580,13 +1580,13 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1637,13 +1637,13 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>38</v>
@@ -1655,7 +1655,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -1686,16 +1686,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1733,19 +1733,19 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -1757,13 +1757,13 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1782,7 +1782,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -1791,7 +1791,7 @@
         <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>88</v>
@@ -1857,13 +1857,13 @@
         <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -1888,7 +1888,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -1897,7 +1897,7 @@
         <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>93</v>
@@ -1967,13 +1967,13 @@
         <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -1998,7 +1998,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2007,7 +2007,7 @@
         <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>93</v>
@@ -2075,13 +2075,13 @@
         <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -2106,7 +2106,7 @@
         <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>38</v>
@@ -2115,7 +2115,7 @@
         <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>104</v>
@@ -2185,13 +2185,13 @@
         <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -2216,7 +2216,7 @@
         <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>38</v>
@@ -2225,7 +2225,7 @@
         <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>104</v>
@@ -2295,13 +2295,13 @@
         <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
@@ -2326,7 +2326,7 @@
         <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>38</v>
@@ -2335,7 +2335,7 @@
         <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>114</v>
@@ -2403,13 +2403,13 @@
         <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>38</v>
@@ -2434,7 +2434,7 @@
         <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -2443,7 +2443,7 @@
         <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>93</v>
@@ -2513,13 +2513,13 @@
         <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>38</v>
@@ -2544,7 +2544,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -2553,7 +2553,7 @@
         <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>93</v>
@@ -2621,13 +2621,13 @@
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>38</v>
@@ -2652,7 +2652,7 @@
         <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>38</v>
@@ -2661,7 +2661,7 @@
         <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>104</v>
@@ -2729,13 +2729,13 @@
         <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
@@ -2760,7 +2760,7 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
@@ -2769,7 +2769,7 @@
         <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>104</v>
@@ -2837,13 +2837,13 @@
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
@@ -2868,7 +2868,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -2877,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>114</v>
@@ -2945,13 +2945,13 @@
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
@@ -2985,7 +2985,7 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>114</v>
@@ -3057,13 +3057,13 @@
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
@@ -3091,7 +3091,7 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>146</v>
@@ -3165,13 +3165,13 @@
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
@@ -3199,7 +3199,7 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>114</v>
@@ -3275,7 +3275,7 @@
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
@@ -3300,7 +3300,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -3309,7 +3309,7 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>159</v>
@@ -3377,13 +3377,13 @@
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
@@ -3408,7 +3408,7 @@
         <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>38</v>
@@ -3417,7 +3417,7 @@
         <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>164</v>
@@ -3485,13 +3485,13 @@
         <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -857,7 +971,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL24"/>
+  <dimension ref="A1:AL25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -868,11 +982,13 @@
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -883,990 +999,999 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="20.2578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="O4" t="s" s="2">
-        <v>70</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>104</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="AG6" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>48</v>
-      </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>84</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>120</v>
+      </c>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>53</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>59</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>87</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>91</v>
@@ -1874,1630 +1999,1736 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>101</v>
+        <v>133</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="O11" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O11" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>98</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>106</v>
+        <v>139</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>108</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>109</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>111</v>
+        <v>143</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O14" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q15" t="s" s="2">
-        <v>126</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>109</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q16" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>104</v>
+        <v>131</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>134</v>
+        <v>168</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>53</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y21" s="2"/>
       <c r="Z21" t="s" s="2">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>53</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>155</v>
+        <v>76</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>156</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="P23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>38</v>
+        <v>193</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>38</v>
+        <v>194</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="172">
   <si>
     <t>Property</t>
   </si>
@@ -127,120 +127,6 @@
   </si>
   <si>
     <t>constraint</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -971,7 +857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL25"/>
+  <dimension ref="A1:AL24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -982,13 +868,11 @@
   <cols>
     <col min="1" max="1" width="27.5" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.5" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -999,999 +883,990 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.2734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="44.3046875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="20.2578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O4" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="O4" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="I5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="AH5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ5" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL5" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>115</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>51</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>120</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>59</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>91</v>
@@ -1999,1736 +1874,1630 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>129</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K12" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>138</v>
-      </c>
       <c r="M12" t="s" s="2">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>103</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>136</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>145</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>152</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q15" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Q15" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>159</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>166</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>147</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>119</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>147</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y20" s="2"/>
       <c r="Z20" t="s" s="2">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>159</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y21" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Z21" t="s" s="2">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>155</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>156</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>183</v>
+        <v>150</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>91</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>195</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>199</v>
+        <v>166</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O25" s="2"/>
-      <c r="P25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>209</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationtiming.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>
